--- a/CompCars_Original/SwinBase/wronglyClassifications/Data_Full_XGradCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/SwinBase/wronglyClassifications/Data_Full_XGradCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.2167298410092428</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.2153782729069317</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2775177815556006</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2822201068968379</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2168321191423681</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006588740719310661</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006586171985428069</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.006704271740106175</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006607853404582923</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006586643568084252</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01661924131453069</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.01651568061496622</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.02127697305390785</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02103182285974222</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01661390916450382</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004636591544065132</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.004642229124787533</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.004383036491092104</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.004323411608882079</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004635294670455229</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005029256220016757</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.00503785587985611</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.004642479105241306</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.004564919971778486</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.005027569266690084</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006428742465530319</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006411602706327075</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.007199617911350987</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.007087373303657957</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.006426301084278474</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006462411049732009</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.006474857717976125</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.005902611415566302</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.005837551036660878</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.006460995951113343</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.2665118342375438</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.2670143810441757</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.2439093583792648</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.242172389519841</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.266474054220351</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1820125294350199</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1824912713803162</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1604806977367374</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1708556092536586</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1822381894020119</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002519515166782334</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.002525005958066627</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002272562095330181</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002187963807261038</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.002517675108015357</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.01968175079605242</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.01970950008324864</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.01843370268260151</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.01759069477646478</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.01966341491569687</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002576780348233066</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.002575798268199396</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.002620950244368241</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002559407358299438</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.002575441756996292</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01950842329213346</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.01955223708794068</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.01753786005518939</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.01705609825878645</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01949794471109716</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2333765117195407</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2338962892521665</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.2099990691056164</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.1976869825495577</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2331087171420825</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.003161683641849374</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.003170061931158872</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.002784862857491702</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.002905144336336011</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.003164299829418929</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002794609560813273</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.002802628708758676</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.0024339414689103</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.002463961187552193</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.002795262506017366</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.000237547740918919</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0002399250318424995</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001306270322421575</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0001328946737250174</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.000237597063354232</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.00511868665948553</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.0049708094213288</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01176959292596203</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01271579508155634</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.005139267070879987</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>5.302636151149865e-06</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>5.4205357512291e-06</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.848639696609095e-08</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>5.303038240336107e-06</v>
       </c>
     </row>
